--- a/Szemelyes_kompetenciak_7_8 osztály.xlsx
+++ b/Szemelyes_kompetenciak_7_8 osztály.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szocialis_komp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\szoc-es tarsas_kom_kerdoiv\szocialis_komp\steamlit cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1330BE11-7155-4880-B763-326454FAD948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A4CF17-4014-4302-A194-138011CC7590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12" windowWidth="11352" windowHeight="8952"/>
+    <workbookView xWindow="480" yWindow="12" windowWidth="11352" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatbevitel" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>D</t>
   </si>
@@ -395,12 +395,18 @@
   </si>
   <si>
     <t>igen</t>
+  </si>
+  <si>
+    <t>Kategória</t>
+  </si>
+  <si>
+    <t>Kérdés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -743,14 +749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -760,6 +766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
       <c r="D1" t="s">
         <v>116</v>
       </c>
@@ -2409,6 +2421,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101006CE672EF0457C547B53B7B128457CB28" ma:contentTypeVersion="2" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="3ef84f6205d0d3fbe04e8a25cdd92653">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c05d769e-2407-4b95-9265-d42f5757b401" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dcc09ce32e374e66084a4ab14ee82e3" ns2:_="">
     <xsd:import namespace="c05d769e-2407-4b95-9265-d42f5757b401"/>
@@ -2556,22 +2583,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC8B7733-1B2E-4735-B155-46CEFFAB1FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c05d769e-2407-4b95-9265-d42f5757b401"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7CCF8D3-6795-4BEB-9578-D849550F455E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D861038-7A30-4650-9B57-CE880186CAE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2587,28 +2623,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7CCF8D3-6795-4BEB-9578-D849550F455E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC8B7733-1B2E-4735-B155-46CEFFAB1FEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c05d769e-2407-4b95-9265-d42f5757b401"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>